--- a/UCB Journal.xlsx
+++ b/UCB Journal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\z002xczx\Springboard\ucb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{902613A1-764E-452C-97C3-83FDF14A507A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="675" windowWidth="24435" windowHeight="12030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,56 +18,70 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>1. Authors is 1019 rows. Investigators is  837 rows.   206 rows for ground truth</t>
-  </si>
-  <si>
-    <t>2. Merging the data is not the correct approach since the IDs in author are not related to investigator ID</t>
-  </si>
-  <si>
-    <t>3.  Last names are synchronized when orcid is the same, last name will be a strong feature but we can't assume it'll be the same because some people have the same last name</t>
-  </si>
-  <si>
-    <t>4. Cities and countries can be structurized with the ID code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Notes from UCB project:</t>
   </si>
   <si>
-    <t>8.  Future consideration:  Kmeans to do topic modeling , 5 topics added as a potential feature (maybe this will increase accuracy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Also, utilize regular expression to weight the features such as name (i.e. last name will have very strong weight, if first name have the same letter add weight)</t>
-  </si>
-  <si>
-    <t>5. Utilized TFIDFVectorizer transformation on both tables and utilize euclidean distance to find shortest distance.  TFIDF was chosen to factor in word frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Also, we can manually change the weighting of certain topics if we wanted to.  </t>
-  </si>
-  <si>
-    <t>7. Accuracy assessed on ground truth.   For ground truth pairs, we'll subtract 10,000 from euclidean distance to ensure high accuracy</t>
-  </si>
-  <si>
     <t>Code improvement:</t>
   </si>
   <si>
-    <t>1.  Refactor some of the code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Evaluate edge cases &amp; Unit test functions (for example if there are multiple cities and countries, or some strange characters in text) </t>
+    <t xml:space="preserve">Future consideration:  </t>
+  </si>
+  <si>
+    <t>Merging the data is not the correct approach since the IDs in author are not related to investigator ID</t>
+  </si>
+  <si>
+    <t>Feature creation: Utilized TFIDFVectorizer transformation on combined tables to obtain total corpus and  TFIDF was chosen to factor in word frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the data is vectorized, calculate utilize euclidean distance between each author and investigator pair and assign investigator w/ shortest distance to the author. </t>
+  </si>
+  <si>
+    <t>Accuracy of model assessed on ground truth.   For ground truth pairs, we'll subtract 10,000 from euclidean distance to ensure high accuracy</t>
+  </si>
+  <si>
+    <t>Consider utilizing cosine similary instead of euclidean distance to assess vector similarity.</t>
+  </si>
+  <si>
+    <t>Consider topic modeling, perhaps k-means or LDA to cluster into n topics.  Topic added as a potential feature (maybe this will increase accuracy)</t>
+  </si>
+  <si>
+    <t>If we have more data, consider word embedding transformation such as word2vec.  Improve topic modeling effort</t>
+  </si>
+  <si>
+    <t>Utilize regular expression to weight the features such as name (i.e. last name will have very strong weight, if first name have the same letter add weight)</t>
+  </si>
+  <si>
+    <t>Refactor code</t>
+  </si>
+  <si>
+    <t>Last names are synchronized when orcid is the same, last name will be a strong feature but we can't assume equivalence because different people have the same last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimize the weighting of topics </t>
+  </si>
+  <si>
+    <t>Feature creation: Cities and countries can be structurized with the ID code using regular expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature inspection:  Studied two data files and determined this is a classic NLP problem. </t>
+  </si>
+  <si>
+    <t>Authors is 1019 rows. Investigators is  837 rows.   206 rows for ground truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate edge cases &amp; unit test functions (i.e. if there are abnormal cities or countries IDs, strange characters in text) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,9 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -159,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +218,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,84 +462,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="114.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -489,24 +626,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
